--- a/src/main/resources/excel/2 There.xlsx
+++ b/src/main/resources/excel/2 There.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1 There should be" sheetId="1" state="visible" r:id="rId3"/>
@@ -779,7 +779,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -916,7 +916,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="65.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="86.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="103.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="103.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -926,7 +926,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -937,7 +937,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -948,7 +948,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -959,7 +959,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -970,7 +970,7 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -981,7 +981,7 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -992,7 +992,7 @@
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="70.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="65.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="82.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="82.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,7 +1120,7 @@
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       <c r="B6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       <c r="B7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       <c r="B8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1208,7 +1208,7 @@
       <c r="B9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       <c r="B10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       <c r="B11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       <c r="B12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       <c r="B13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       <c r="B14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       <c r="B15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1303,18 +1303,18 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="62.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="75.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="61.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1322,10 +1322,10 @@
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1333,10 +1333,10 @@
       <c r="A3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1344,10 +1344,10 @@
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1355,10 +1355,10 @@
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1366,10 +1366,10 @@
       <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1377,10 +1377,10 @@
       <c r="A7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1388,10 +1388,10 @@
       <c r="A8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1399,10 +1399,10 @@
       <c r="A9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1410,10 +1410,10 @@
       <c r="A10" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1421,10 +1421,10 @@
       <c r="A11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1432,10 +1432,10 @@
       <c r="A12" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1443,10 +1443,10 @@
       <c r="A13" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1454,10 +1454,10 @@
       <c r="A14" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1465,10 +1465,10 @@
       <c r="A15" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1490,15 +1490,16 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="57.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="79.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="79.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,7 +1509,7 @@
       <c r="B1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1519,7 +1520,7 @@
       <c r="B2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1530,7 +1531,7 @@
       <c r="B3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1541,7 +1542,7 @@
       <c r="B4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1552,7 +1553,7 @@
       <c r="B5" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1563,7 +1564,7 @@
       <c r="B6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1574,7 +1575,7 @@
       <c r="B7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1585,7 +1586,7 @@
       <c r="B8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       <c r="B9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1607,7 +1608,7 @@
       <c r="B10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1618,7 +1619,7 @@
       <c r="B11" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1629,7 +1630,7 @@
       <c r="B12" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1640,7 +1641,7 @@
       <c r="B13" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1651,7 +1652,7 @@
       <c r="B14" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1662,7 +1663,7 @@
       <c r="B15" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1684,15 +1685,15 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="73.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="90.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="66.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="90.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="66.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,7 +1703,7 @@
       <c r="B1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1713,7 +1714,7 @@
       <c r="B2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1724,7 +1725,7 @@
       <c r="B3" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1735,7 +1736,7 @@
       <c r="B4" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       <c r="B5" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1757,7 +1758,7 @@
       <c r="B6" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>196</v>
       </c>
     </row>
@@ -1768,7 +1769,7 @@
       <c r="B7" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>199</v>
       </c>
     </row>
@@ -1779,7 +1780,7 @@
       <c r="B8" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>202</v>
       </c>
     </row>
@@ -1790,7 +1791,7 @@
       <c r="B9" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>205</v>
       </c>
     </row>
@@ -1801,7 +1802,7 @@
       <c r="B10" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>208</v>
       </c>
     </row>
@@ -1812,18 +1813,18 @@
       <c r="B11" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>214</v>
       </c>
     </row>
@@ -1834,7 +1835,7 @@
       <c r="B13" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>217</v>
       </c>
     </row>
@@ -1845,7 +1846,7 @@
       <c r="B14" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -1856,7 +1857,7 @@
       <c r="B15" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>223</v>
       </c>
     </row>
